--- a/MoneyBook/201503.xlsx
+++ b/MoneyBook/201503.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="146">
   <si>
     <t>2015.03.20</t>
   </si>
@@ -164,6 +164,310 @@
   <si>
     <t>형태</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.04.01</t>
+  </si>
+  <si>
+    <t>１１번가＿１５９９－０１１０＿１１ｓｔ．</t>
+  </si>
+  <si>
+    <t>2015.04.02</t>
+  </si>
+  <si>
+    <t>（주）더드림（카페드림한양대ＥＲＩＣＡ창</t>
+  </si>
+  <si>
+    <t>올앳ＰＧ＿대표（일반）</t>
+  </si>
+  <si>
+    <t>2015.04.03</t>
+  </si>
+  <si>
+    <t>뉴욕핫도그앤커피안산한양대점</t>
+  </si>
+  <si>
+    <t>2015.04.04</t>
+  </si>
+  <si>
+    <t>롯데리아인천소래포구역점</t>
+  </si>
+  <si>
+    <t>2015.04.05</t>
+  </si>
+  <si>
+    <t>루나리치잠실 석촌호수점</t>
+  </si>
+  <si>
+    <t>카페윈드밀（ＣＡＦＥ ｗｉｎｄｍｉｌｌ）</t>
+  </si>
+  <si>
+    <t>고기프린스</t>
+  </si>
+  <si>
+    <t>2015.04.06</t>
+  </si>
+  <si>
+    <t>인터넷상거래</t>
+  </si>
+  <si>
+    <t>（주）신세계페이먼츠</t>
+  </si>
+  <si>
+    <t>（주）코리아세븐한양대４생활관점</t>
+  </si>
+  <si>
+    <t>2015.04.08</t>
+  </si>
+  <si>
+    <t>럭키할인마트</t>
+  </si>
+  <si>
+    <t>주식회사 현대홈쇼핑</t>
+  </si>
+  <si>
+    <t>2015.04.09</t>
+  </si>
+  <si>
+    <t>스파리스사우나２층매점</t>
+  </si>
+  <si>
+    <t>2015.04.11</t>
+  </si>
+  <si>
+    <t>스파리스사우나３층스넥</t>
+  </si>
+  <si>
+    <t>2015.04.12</t>
+  </si>
+  <si>
+    <t>스파리스식당</t>
+  </si>
+  <si>
+    <t>스파리스２４시불가마</t>
+  </si>
+  <si>
+    <t>모박사부대찌개</t>
+  </si>
+  <si>
+    <t>머꼬가자</t>
+  </si>
+  <si>
+    <t>2015.04.13</t>
+  </si>
+  <si>
+    <t>2015.04.15</t>
+  </si>
+  <si>
+    <t>소울키친</t>
+  </si>
+  <si>
+    <t>2015.04.16</t>
+  </si>
+  <si>
+    <t>카페모퉁이</t>
+  </si>
+  <si>
+    <t>2015.04.18</t>
+  </si>
+  <si>
+    <t>요거프레소（안산한대역점）</t>
+  </si>
+  <si>
+    <t>2015.04.19</t>
+  </si>
+  <si>
+    <t>더플레이버</t>
+  </si>
+  <si>
+    <t>2015.04.20</t>
+  </si>
+  <si>
+    <t>떼드떼한양대</t>
+  </si>
+  <si>
+    <t>2015.04.23</t>
+  </si>
+  <si>
+    <t>롯데홈쇼핑</t>
+  </si>
+  <si>
+    <t>2015.04.24</t>
+  </si>
+  <si>
+    <t>2015.04.25</t>
+  </si>
+  <si>
+    <t>그리심（ｇｅｒｉｚｉｍ）</t>
+  </si>
+  <si>
+    <t>ＧＳ２５안산한양대점</t>
+  </si>
+  <si>
+    <t>2015.04.26</t>
+  </si>
+  <si>
+    <t>2015.04.27</t>
+  </si>
+  <si>
+    <t>티켓몬스터</t>
+  </si>
+  <si>
+    <t>소셜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ＧＳ２５서해그랑블점</t>
+  </si>
+  <si>
+    <t>2015.04.29</t>
+  </si>
+  <si>
+    <t>2015.04.30</t>
+  </si>
+  <si>
+    <t>커피홀릭</t>
+  </si>
+  <si>
+    <t>2015.05.01</t>
+  </si>
+  <si>
+    <t>2015.05.03</t>
+  </si>
+  <si>
+    <t>2015.05.04</t>
+  </si>
+  <si>
+    <t>미스터브리즈커피</t>
+  </si>
+  <si>
+    <t>2015.05.08</t>
+  </si>
+  <si>
+    <t>따봄（ＴＡｂｏｍ）</t>
+  </si>
+  <si>
+    <t>2015.05.09</t>
+  </si>
+  <si>
+    <t>（주）에이블씨앤씨사당역</t>
+  </si>
+  <si>
+    <t>꿈꾸는다락방</t>
+  </si>
+  <si>
+    <t>코레일유통（주）경인지사</t>
+  </si>
+  <si>
+    <t>2015.05.10</t>
+  </si>
+  <si>
+    <t>취해</t>
+  </si>
+  <si>
+    <t>2015.05.11</t>
+  </si>
+  <si>
+    <t>에프알엘코리아（주）사당점／유니클로사당</t>
+  </si>
+  <si>
+    <t>2015.05.12</t>
+  </si>
+  <si>
+    <t>2015.05.13</t>
+  </si>
+  <si>
+    <t>2015.05.14</t>
+  </si>
+  <si>
+    <t>휘모리</t>
+  </si>
+  <si>
+    <t>롯데쇼핑（주）청량리점</t>
+  </si>
+  <si>
+    <t>2015.05.15</t>
+  </si>
+  <si>
+    <t>（주）다이소아성산업</t>
+  </si>
+  <si>
+    <t>2015.05.16</t>
+  </si>
+  <si>
+    <t>2015.05.18</t>
+  </si>
+  <si>
+    <t>술다방</t>
+  </si>
+  <si>
+    <t>2015.05.19</t>
+  </si>
+  <si>
+    <t>제이에스펍（ＪＳ ｐｕｂ）</t>
+  </si>
+  <si>
+    <t>투다리</t>
+  </si>
+  <si>
+    <t>2015.05.20</t>
+  </si>
+  <si>
+    <t>교통요금</t>
+  </si>
+  <si>
+    <t>코레일유통주식회사경기지사</t>
+  </si>
+  <si>
+    <t>（주）보성테크서울지점／Ｇｏｏｄ Ｆｏｏ</t>
+  </si>
+  <si>
+    <t>2015.05.21</t>
+  </si>
+  <si>
+    <t>네이버페이</t>
+  </si>
+  <si>
+    <t>2015.05.22</t>
+  </si>
+  <si>
+    <t>밥알（ＢａｂＡｌ）한양대점</t>
+  </si>
+  <si>
+    <t>2015.05.24</t>
+  </si>
+  <si>
+    <t>곰골식당</t>
+  </si>
+  <si>
+    <t>할리스커피 공주점</t>
+  </si>
+  <si>
+    <t>2015.05.25</t>
+  </si>
+  <si>
+    <t>제일유통</t>
+  </si>
+  <si>
+    <t>롯데자산개발（주）롯데몰수원점</t>
+  </si>
+  <si>
+    <t>2015.05.26</t>
+  </si>
+  <si>
+    <t>2015.05.27</t>
+  </si>
+  <si>
+    <t>오봉도시락（한양에리카캠퍼스점）</t>
+  </si>
+  <si>
+    <t>2015.05.29</t>
+  </si>
+  <si>
+    <t>2015.05.30</t>
+  </si>
+  <si>
+    <t>2015.05.31</t>
   </si>
 </sst>
 </file>
@@ -513,11 +817,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -897,6 +1199,1672 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2700</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="33">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2">
+        <v>19400</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="33">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2800</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2">
+        <v>61000</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="33">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2800</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2">
+        <v>6500</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="33">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="2">
+        <v>9230</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="2">
+        <v>59000</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="33">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="2">
+        <v>11000</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="2">
+        <v>72500</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2">
+        <v>76971</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="33">
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2800</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="2">
+        <v>8740</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="2">
+        <v>23150</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1900</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="2">
+        <v>10500</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="2">
+        <v>13000</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="2">
+        <v>8160</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="2">
+        <v>6500</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="2">
+        <v>6500</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="2">
+        <v>4800</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="33">
+      <c r="A53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3400</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="2">
+        <v>8491</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="2">
+        <v>6550</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="33">
+      <c r="A57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2800</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="33">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3500</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2200</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="2">
+        <v>4450</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3200</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2400</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="2">
+        <v>7590</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="2">
+        <v>35300</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="2">
+        <v>12800</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="33">
+      <c r="A68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="2">
+        <v>18930</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="33">
+      <c r="A69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="2">
+        <v>35320</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="33">
+      <c r="A70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="2">
+        <v>30170</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="33">
+      <c r="A71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="2">
+        <v>31170</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="2">
+        <v>3500</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="2">
+        <v>64000</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="2">
+        <v>5500</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="2">
+        <v>6900</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="2">
+        <v>5200</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="2">
+        <v>13360</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="33">
+      <c r="A79" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="2">
+        <v>26440</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="33">
+      <c r="A82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="2">
+        <v>47700</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="33">
+      <c r="A83" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="2">
+        <v>36890</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2700</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="33">
+      <c r="A86" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="2">
+        <v>10070</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="2">
+        <v>19500</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="2">
+        <v>3500</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="2">
+        <v>36000</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="2">
+        <v>34300</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="2">
+        <v>13500</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="1">
+        <v>900</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="33">
+      <c r="A100" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" s="2">
+        <v>6500</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B103" s="2">
+        <v>52930</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="2">
+        <v>7680</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B105" s="2">
+        <v>3500</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1800</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" s="2">
+        <v>23000</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="2">
+        <v>5900</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D109" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B111" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="33">
+      <c r="A112" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" s="2">
+        <v>5700</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="33">
+      <c r="A113" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D113" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="33">
+      <c r="A114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2700</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="2">
+        <v>5800</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2700</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="2">
+        <v>24400</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D120" t="s">
+        <v>94</v>
+      </c>
+      <c r="E120" t="s">
         <v>21</v>
       </c>
     </row>

--- a/MoneyBook/201503.xlsx
+++ b/MoneyBook/201503.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="158">
   <si>
     <t>2015.03.20</t>
   </si>
@@ -468,6 +468,54 @@
   </si>
   <si>
     <t>2015.05.31</t>
+  </si>
+  <si>
+    <t>2015.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이준승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.05.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.05.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.05.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.04.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.04.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.03.27.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -513,7 +561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,6 +569,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -817,9 +874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1084,20 +1143,20 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2200</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
+      <c r="A16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="5">
+        <v>600000</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1105,13 +1164,13 @@
         <v>26</v>
       </c>
       <c r="B17" s="2">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -1122,30 +1181,30 @@
         <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>69480</v>
+        <v>2700</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>59840</v>
+        <v>69480</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
         <v>21</v>
@@ -1153,30 +1212,30 @@
     </row>
     <row r="20" spans="1:5" ht="33">
       <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2">
+        <v>59840</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="33">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>57000</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2">
-        <v>71100</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -1187,16 +1246,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>2900</v>
+        <v>71100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -1204,13 +1263,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1224,30 +1283,30 @@
         <v>45</v>
       </c>
       <c r="B24" s="2">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="33">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="2">
-        <v>19400</v>
+        <v>2700</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -1255,81 +1314,81 @@
     </row>
     <row r="26" spans="1:5" ht="33">
       <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2">
+        <v>19400</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="5">
+        <v>300000</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="5">
+        <v>312000</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="33">
+      <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B29" s="2">
         <v>2800</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B30" s="2">
         <v>61000</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="33">
-      <c r="A28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2800</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="2">
-        <v>6500</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="33">
-      <c r="A30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="2">
-        <v>9230</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="D30" t="s">
         <v>43</v>
@@ -1338,15 +1397,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="33">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B31" s="2">
-        <v>59000</v>
+        <v>2800</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -1355,35 +1414,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="33">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" s="2">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="33">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2">
-        <v>11000</v>
+        <v>9230</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -1391,50 +1450,50 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2">
-        <v>72500</v>
+        <v>59000</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="33">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2">
-        <v>76971</v>
+        <v>3000</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="33">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2">
-        <v>2800</v>
+        <v>11000</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
@@ -1442,16 +1501,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B37" s="2">
-        <v>8740</v>
+        <v>72500</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
@@ -1459,13 +1518,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2">
-        <v>23150</v>
+        <v>76971</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
@@ -1474,18 +1533,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="33">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B39" s="2">
-        <v>1900</v>
+        <v>2800</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -1493,16 +1552,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2">
-        <v>10500</v>
+        <v>8740</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -1510,16 +1569,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2">
-        <v>7000</v>
+        <v>23150</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -1527,13 +1586,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -1544,16 +1603,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" s="2">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
         <v>21</v>
@@ -1564,13 +1623,13 @@
         <v>69</v>
       </c>
       <c r="B44" s="2">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
         <v>21</v>
@@ -1581,10 +1640,10 @@
         <v>69</v>
       </c>
       <c r="B45" s="2">
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -1595,13 +1654,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B46" s="2">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -1612,16 +1671,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2">
-        <v>8160</v>
+        <v>25000</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
@@ -1629,16 +1688,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
@@ -1646,16 +1705,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
@@ -1663,16 +1722,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2">
-        <v>4800</v>
+        <v>8160</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
@@ -1680,13 +1739,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D51" t="s">
         <v>23</v>
@@ -1697,13 +1756,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -1712,18 +1771,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="33">
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2">
-        <v>3400</v>
+        <v>4800</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
@@ -1731,16 +1790,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
@@ -1748,30 +1807,30 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="33">
+      <c r="A56" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="2">
-        <v>8491</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="B56" s="2">
-        <v>6550</v>
+        <v>3400</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
@@ -1780,35 +1839,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="33">
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="33">
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B58" s="2">
-        <v>3500</v>
+        <v>8491</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
         <v>21</v>
@@ -1816,47 +1875,47 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2">
-        <v>2200</v>
+        <v>6550</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="33">
+      <c r="A60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2800</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
         <v>23</v>
       </c>
-      <c r="E59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" s="2">
-        <v>4450</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" t="s">
-        <v>20</v>
-      </c>
       <c r="E60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="33">
       <c r="A61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D61" t="s">
         <v>23</v>
@@ -1870,10 +1929,10 @@
         <v>88</v>
       </c>
       <c r="B62" s="2">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
@@ -1884,13 +1943,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2">
-        <v>7590</v>
+        <v>4450</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D63" t="s">
         <v>20</v>
@@ -1901,16 +1960,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2">
-        <v>35300</v>
+        <v>3200</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="D64" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
@@ -1918,16 +1977,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2">
-        <v>7200</v>
+        <v>2400</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E65" t="s">
         <v>21</v>
@@ -1935,16 +1994,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2">
-        <v>12800</v>
+        <v>7590</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E66" t="s">
         <v>21</v>
@@ -1952,115 +2011,115 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="2">
+        <v>35300</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="5">
+        <v>600000</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" t="s">
+        <v>149</v>
+      </c>
+      <c r="E69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="2">
+        <v>12800</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B71" s="2">
         <v>2500</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D71" t="s">
         <v>23</v>
       </c>
-      <c r="E67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="33">
-      <c r="A68" s="1" t="s">
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="33">
+      <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B72" s="2">
         <v>18930</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D72" t="s">
         <v>43</v>
       </c>
-      <c r="E68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="33">
-      <c r="A69" s="1" t="s">
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="33">
+      <c r="A73" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B73" s="2">
         <v>35320</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D69" t="s">
-        <v>43</v>
-      </c>
-      <c r="E69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="33">
-      <c r="A70" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B70" s="2">
-        <v>30170</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D70" t="s">
-        <v>43</v>
-      </c>
-      <c r="E70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="33">
-      <c r="A71" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" s="2">
-        <v>31170</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D71" t="s">
-        <v>43</v>
-      </c>
-      <c r="E71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B72" s="2">
-        <v>3500</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B73" s="2">
-        <v>64000</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D73" t="s">
         <v>43</v>
@@ -2069,83 +2128,83 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" ht="33">
       <c r="A74" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2">
-        <v>5500</v>
+        <v>30170</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E74" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" ht="33">
       <c r="A75" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2">
-        <v>6900</v>
+        <v>31170</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E75" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B76" s="2">
-        <v>5200</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>35</v>
+      <c r="A76" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="5">
+        <v>300000</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="2">
-        <v>13360</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>106</v>
+      <c r="A77" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="5">
+        <v>300000</v>
+      </c>
+      <c r="C77" t="s">
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="E77" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -2154,15 +2213,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="33">
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2">
-        <v>26440</v>
+        <v>64000</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D79" t="s">
         <v>43</v>
@@ -2173,16 +2232,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E80" t="s">
         <v>21</v>
@@ -2190,13 +2249,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D81" t="s">
         <v>22</v>
@@ -2205,35 +2264,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="33">
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2">
-        <v>47700</v>
+        <v>5200</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83" s="2">
+        <v>13360</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" t="s">
         <v>20</v>
-      </c>
-      <c r="E82" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="33">
-      <c r="A83" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="2">
-        <v>36890</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D83" t="s">
-        <v>43</v>
       </c>
       <c r="E83" t="s">
         <v>21</v>
@@ -2241,13 +2300,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2">
-        <v>2700</v>
+        <v>5000</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -2256,35 +2315,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="33">
       <c r="A85" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2">
-        <v>3000</v>
+        <v>26440</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D85" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E85" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="33">
+    <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2">
-        <v>10070</v>
+        <v>2000</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="D86" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
         <v>21</v>
@@ -2292,50 +2351,50 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2">
-        <v>2300</v>
+        <v>7000</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E87" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="33">
       <c r="A88" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2">
-        <v>2300</v>
+        <v>47700</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E88" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" ht="33">
       <c r="A89" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2">
-        <v>19500</v>
+        <v>36890</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="D89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E89" t="s">
         <v>21</v>
@@ -2343,16 +2402,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E90" t="s">
         <v>21</v>
@@ -2360,33 +2419,33 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E91" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" ht="33">
       <c r="A92" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2">
-        <v>2000</v>
+        <v>10070</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E92" t="s">
         <v>21</v>
@@ -2394,16 +2453,16 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E93" t="s">
         <v>21</v>
@@ -2411,16 +2470,16 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2">
-        <v>36000</v>
+        <v>2300</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E94" t="s">
         <v>21</v>
@@ -2428,13 +2487,13 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2">
-        <v>34300</v>
+        <v>19500</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D95" t="s">
         <v>42</v>
@@ -2445,16 +2504,16 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2">
-        <v>13500</v>
+        <v>4000</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D96" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E96" t="s">
         <v>21</v>
@@ -2462,13 +2521,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D97" t="s">
         <v>20</v>
@@ -2479,13 +2538,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B98" s="1">
-        <v>900</v>
+        <v>120</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2000</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D98" t="s">
         <v>20</v>
@@ -2496,13 +2555,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2">
-        <v>1200</v>
+        <v>3500</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
         <v>20</v>
@@ -2511,18 +2570,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="33">
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2">
-        <v>2000</v>
+        <v>36000</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E100" t="s">
         <v>21</v>
@@ -2530,16 +2589,16 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2">
-        <v>6500</v>
+        <v>34300</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="D101" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E101" t="s">
         <v>21</v>
@@ -2547,16 +2606,16 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2">
-        <v>1500</v>
+        <v>13500</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D102" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E102" t="s">
         <v>21</v>
@@ -2564,16 +2623,16 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2">
-        <v>52930</v>
+        <v>1200</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D103" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E103" t="s">
         <v>21</v>
@@ -2581,13 +2640,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B104" s="2">
-        <v>7680</v>
+        <v>126</v>
+      </c>
+      <c r="B104" s="1">
+        <v>900</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="D104" t="s">
         <v>20</v>
@@ -2598,33 +2657,33 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D105" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E105" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" ht="33">
       <c r="A106" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D106" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E106" t="s">
         <v>21</v>
@@ -2632,16 +2691,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2">
-        <v>2000</v>
+        <v>6500</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E107" t="s">
         <v>21</v>
@@ -2649,16 +2708,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2">
-        <v>23000</v>
+        <v>1500</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="D108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E108" t="s">
         <v>21</v>
@@ -2666,16 +2725,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2">
-        <v>5900</v>
+        <v>52930</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D109" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E109" t="s">
         <v>21</v>
@@ -2683,13 +2742,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2">
-        <v>10000</v>
+        <v>7680</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="D110" t="s">
         <v>20</v>
@@ -2700,64 +2759,64 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D111" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1800</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" t="s">
         <v>20</v>
       </c>
-      <c r="E111" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="33">
-      <c r="A112" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B112" s="2">
-        <v>5700</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D112" t="s">
-        <v>20</v>
-      </c>
-      <c r="E112" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="33">
-      <c r="A113" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B113" s="2">
-        <v>25000</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D113" t="s">
-        <v>43</v>
-      </c>
       <c r="E113" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="33">
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B114" s="2">
-        <v>2700</v>
+        <v>23000</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D114" t="s">
         <v>22</v>
@@ -2768,13 +2827,13 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2">
-        <v>2300</v>
+        <v>5900</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
@@ -2785,13 +2844,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2">
-        <v>5800</v>
+        <v>10000</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D116" t="s">
         <v>20</v>
@@ -2802,30 +2861,30 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2">
-        <v>2700</v>
+        <v>6000</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E117" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="33">
       <c r="A118" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B118" s="2">
-        <v>2000</v>
+        <v>5700</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
         <v>20</v>
@@ -2834,43 +2893,196 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="33">
       <c r="A119" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D119" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="33">
+      <c r="A120" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2700</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D120" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D121" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" s="2">
+        <v>5800</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2700</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B124" s="5">
+        <v>300000</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D124" t="s">
+        <v>149</v>
+      </c>
+      <c r="E124" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B125" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B126" s="2">
         <v>10000</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D126" t="s">
         <v>20</v>
       </c>
-      <c r="E119" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1" t="s">
+      <c r="E126" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B127" s="2">
         <v>24400</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D127" t="s">
         <v>94</v>
       </c>
-      <c r="E120" t="s">
-        <v>21</v>
+      <c r="E127" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="5">
+        <v>300000</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D128" t="s">
+        <v>149</v>
+      </c>
+      <c r="E128" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" s="4">
+        <v>600000</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D129" t="s">
+        <v>149</v>
+      </c>
+      <c r="E129" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:A23">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:E129">
+    <sortCondition ref="A106"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MoneyBook/201503.xlsx
+++ b/MoneyBook/201503.xlsx
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1017,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
